--- a/Code/9-Extensions/ItemTemplates/ImportDatabaseExcel/ImportDatabase.xlsx
+++ b/Code/9-Extensions/ItemTemplates/ImportDatabaseExcel/ImportDatabase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ConnectionProvider</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,23 +58,29 @@
   <si>
     <t>Data Source=localhost;Initial Catalog=DatabaseName;user id=sa;password=123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ImportDatabase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,7 +133,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,67 +416,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="91.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Static,FileRegex"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"IgnoreExists,Merge"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"ImportDatabase,GenerateScript"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -484,7 +500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -497,7 +513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
